--- a/medicine/Enfance/Zoey_Dean/Zoey_Dean.xlsx
+++ b/medicine/Enfance/Zoey_Dean/Zoey_Dean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zoey Dean est le nom de plume de Cherie Bennett et de son mari Jeff Gottesfel, créateurs de la série A-List (en) et de How to Teach Filthy Rich Girls, qui a été adapté en série télévisée sous le nom de Privileged.
 Ils ont également écrit la série de livres pour enfants et adolescents The Talent (en).
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Série A-List
-2003 : The A-List
+          <t>Série A-List</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2003 : The A-List
 2003 : Girls on Film
 2005 : Blonde Ambition
 2005 : Tall Cool One
@@ -524,14 +541,82 @@
 2006 : American Beauty
 2007 : Heart of Glass
 2007 : Beautiful Stranger
-2008 : California Dreaming
-Série Talent
-2008 : Talent
+2008 : California Dreaming</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Zoey_Dean</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zoey_Dean</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Série Talent</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2008 : Talent
 2008 : Almost Famous
 2009 : Star Power
-2009 : Young Hollywood
-Autres romans
-2008 : How To Teach Filthy Rich Girls (Privileged)
+2009 : Young Hollywood</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Zoey_Dean</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zoey_Dean</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2008 : How To Teach Filthy Rich Girls (Privileged)
 2009 : Hollywood is Like High School With Money</t>
         </is>
       </c>
